--- a/list_3.xlsx
+++ b/list_3.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3509,11 +3509,21 @@
       <c r="C118" t="n">
         <v>39510</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>678857</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F118" t="n">
+        <v>191098245500</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4307642208500</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4.440000057220459</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3530,6 +3540,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>282000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>63516</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3542,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6618,11 +6644,21 @@
       <c r="C118" t="n">
         <v>103695</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>725750</v>
+      </c>
+      <c r="E118" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F118" t="n">
+        <v>85420775000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6884597734300</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.240000009536743</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6639,6 +6675,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118700</v>
+      </c>
+      <c r="C120" t="n">
+        <v>151922</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6651,7 +6703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9727,11 +9779,21 @@
       <c r="C118" t="n">
         <v>105200</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>603418</v>
+      </c>
+      <c r="E118" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F118" t="n">
+        <v>44833957400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1753857221100</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.559999942779541</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9748,6 +9810,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>162812</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9760,7 +9838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12836,11 +12914,21 @@
       <c r="C118" t="n">
         <v>55247</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>491845</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F118" t="n">
+        <v>98073893000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2263092094600</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4.329999923706055</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -12857,6 +12945,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>206500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>87714</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12869,7 +12973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15945,11 +16049,21 @@
       <c r="C118" t="n">
         <v>333799</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>10138</v>
+      </c>
+      <c r="E118" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2428051000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>8964641872500</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.02999999932944775</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -15967,6 +16081,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>231500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>445815</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_3.xlsx
+++ b/list_3.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5563,11 +5563,21 @@
       <c r="C197" t="n">
         <v>36411</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>681815</v>
+      </c>
+      <c r="E197" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F197" t="n">
+        <v>193294552500</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4338247126500</v>
+      </c>
+      <c r="H197" t="n">
+        <v>4.460000038146973</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5584,6 +5594,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>286500</v>
+      </c>
+      <c r="C199" t="n">
+        <v>38680</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5596,7 +5622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10726,11 +10752,21 @@
       <c r="C197" t="n">
         <v>199189</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>725696</v>
+      </c>
+      <c r="E197" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F197" t="n">
+        <v>86648102400</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6984035424600</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.240000009536743</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10747,6 +10783,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>119800</v>
+      </c>
+      <c r="C199" t="n">
+        <v>167675</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10759,7 +10811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15889,11 +15941,21 @@
       <c r="C197" t="n">
         <v>143682</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>628529</v>
+      </c>
+      <c r="E197" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F197" t="n">
+        <v>47956762700</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1801067375100</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.660000085830688</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15910,6 +15972,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>74800</v>
+      </c>
+      <c r="C199" t="n">
+        <v>148613</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15922,7 +16000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21052,11 +21130,21 @@
       <c r="C197" t="n">
         <v>64228</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>532166</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F197" t="n">
+        <v>109360113000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2332324099500</v>
+      </c>
+      <c r="H197" t="n">
+        <v>4.690000057220459</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -21073,6 +21161,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>205000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>73436</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21085,7 +21189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26215,11 +26319,21 @@
       <c r="C197" t="n">
         <v>472563</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>34762</v>
+      </c>
+      <c r="E197" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F197" t="n">
+        <v>8429785000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>9076933837500</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -26237,6 +26351,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>242500</v>
+      </c>
+      <c r="C199" t="n">
+        <v>337465</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_3.xlsx
+++ b/list_3.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="한국콜마" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="코스맥스" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="에이피알" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="달바글로벌" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5589,11 +5590,21 @@
       <c r="C198" t="n">
         <v>32851</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>678763</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F198" t="n">
+        <v>192768692000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>4345898356000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>4.440000057220459</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5610,6 +5621,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>290500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>57448</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5622,7 +5649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10778,11 +10805,21 @@
       <c r="C198" t="n">
         <v>191315</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>746658</v>
+      </c>
+      <c r="E198" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F198" t="n">
+        <v>88628304600</v>
+      </c>
+      <c r="G198" t="n">
+        <v>6943090493300</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.279999971389771</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10799,6 +10836,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>123700</v>
+      </c>
+      <c r="C200" t="n">
+        <v>408045</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10811,7 +10864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15967,11 +16020,21 @@
       <c r="C198" t="n">
         <v>138431</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>637263</v>
+      </c>
+      <c r="E198" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F198" t="n">
+        <v>47922177600</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1775101790400</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.700000047683716</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15988,6 +16051,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>77700</v>
+      </c>
+      <c r="C200" t="n">
+        <v>323673</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16000,7 +16079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21156,11 +21235,21 @@
       <c r="C198" t="n">
         <v>45319</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>525743</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F198" t="n">
+        <v>107251572000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2315299836000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>4.630000114440918</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -21177,6 +21266,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>205500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>140082</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21189,7 +21294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26345,11 +26450,21 @@
       <c r="C198" t="n">
         <v>521308</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>50797</v>
+      </c>
+      <c r="E198" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F198" t="n">
+        <v>12115084500</v>
+      </c>
+      <c r="G198" t="n">
+        <v>8927211217500</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -26367,6 +26482,2819 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>246500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>566514</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>종가</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>거래량</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>공매도잔량(주)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>상장주식수</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>공매도금액(원)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>시가총액</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>공매도비중(%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B2" t="n">
+        <v>110100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7190988</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1328870116500</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B3" t="n">
+        <v>120500</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1678716</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1454394632500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B4" t="n">
+        <v>141500</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2025875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1707857597500</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B5" t="n">
+        <v>144300</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1185386</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1741652659500</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B6" t="n">
+        <v>136100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>596602</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1642681406500</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B7" t="n">
+        <v>136400</v>
+      </c>
+      <c r="C7" t="n">
+        <v>656427</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1646302306000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B8" t="n">
+        <v>150000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1279342</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1810449750000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B9" t="n">
+        <v>152000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>586570</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F9" t="n">
+        <v>760000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1834589080000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03999999910593033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B10" t="n">
+        <v>145200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>328408</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F10" t="n">
+        <v>726000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1752515358000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03999999910593033</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>391209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9436</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1321983600</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1690960066500</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B12" t="n">
+        <v>144900</v>
+      </c>
+      <c r="C12" t="n">
+        <v>499865</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F12" t="n">
+        <v>724500000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1748894458500</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.03999999910593033</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B13" t="n">
+        <v>140700</v>
+      </c>
+      <c r="C13" t="n">
+        <v>259280</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F13" t="n">
+        <v>703500000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1698201865500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03999999910593033</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B14" t="n">
+        <v>147500</v>
+      </c>
+      <c r="C14" t="n">
+        <v>533713</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F14" t="n">
+        <v>737500000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1780275587500</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03999999910593033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B15" t="n">
+        <v>164600</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1040195</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F15" t="n">
+        <v>987600000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1986666859000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B16" t="n">
+        <v>165300</v>
+      </c>
+      <c r="C16" t="n">
+        <v>417367</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F16" t="n">
+        <v>991800000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1995115624500</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B17" t="n">
+        <v>162600</v>
+      </c>
+      <c r="C17" t="n">
+        <v>236906</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12069665</v>
+      </c>
+      <c r="F17" t="n">
+        <v>975600000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1962527529000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B18" t="n">
+        <v>157400</v>
+      </c>
+      <c r="C18" t="n">
+        <v>207250</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7349</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1156732600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1903897021000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B19" t="n">
+        <v>175000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>436205</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1050000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2116785125000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B20" t="n">
+        <v>175000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>340824</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19381</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3391675000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2116785125000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B21" t="n">
+        <v>172500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>251274</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29316</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5057010000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2086545337500</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.239999994635582</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B22" t="n">
+        <v>183200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>814599</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14284</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2616828800</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2215971628000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.119999997317791</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B23" t="n">
+        <v>190200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>368416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2472600000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2300643033000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B24" t="n">
+        <v>187000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>252694</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2431000000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2261936105000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B25" t="n">
+        <v>185000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>189477</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1110000000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2237744275000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B26" t="n">
+        <v>185000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>182428</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1110000000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2237744275000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B27" t="n">
+        <v>196900</v>
+      </c>
+      <c r="C27" t="n">
+        <v>390973</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12095915</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1181400000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2381685663500</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B28" t="n">
+        <v>192500</v>
+      </c>
+      <c r="C28" t="n">
+        <v>230001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12098415</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1155000000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2328944887500</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B29" t="n">
+        <v>185900</v>
+      </c>
+      <c r="C29" t="n">
+        <v>237529</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12098415</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1115400000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2249095348500</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B30" t="n">
+        <v>185600</v>
+      </c>
+      <c r="C30" t="n">
+        <v>162311</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12098415</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1113600000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2245465824000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B31" t="n">
+        <v>176900</v>
+      </c>
+      <c r="C31" t="n">
+        <v>243904</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12098415</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1061400000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2140209613500</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B32" t="n">
+        <v>195100</v>
+      </c>
+      <c r="C32" t="n">
+        <v>447507</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12098415</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1170600000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2360400766500</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B33" t="n">
+        <v>213500</v>
+      </c>
+      <c r="C33" t="n">
+        <v>686016</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1281000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2583598727500</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B34" t="n">
+        <v>223500</v>
+      </c>
+      <c r="C34" t="n">
+        <v>410255</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1452750000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2704610377500</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B35" t="n">
+        <v>228500</v>
+      </c>
+      <c r="C35" t="n">
+        <v>399411</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1485250000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2765116202500</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B36" t="n">
+        <v>230000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>212388</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2645000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2783267950000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B37" t="n">
+        <v>238000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>236332</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2737000000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2880077270000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B38" t="n">
+        <v>233500</v>
+      </c>
+      <c r="C38" t="n">
+        <v>201958</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2685250000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2825622027500</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B39" t="n">
+        <v>212000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>727861</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17499</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3709788000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2565446980000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B40" t="n">
+        <v>216500</v>
+      </c>
+      <c r="C40" t="n">
+        <v>252879</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17460</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3780090000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2619902222500</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B41" t="n">
+        <v>211000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>283588</v>
+      </c>
+      <c r="D41" t="n">
+        <v>17587</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3710857000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2553345815000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.1500000059604645</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B42" t="n">
+        <v>211000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>112032</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18915</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12101165</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3991065000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2553345815000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B43" t="n">
+        <v>207500</v>
+      </c>
+      <c r="C43" t="n">
+        <v>201589</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19063</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3955572500</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2543185362500</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B44" t="n">
+        <v>210000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>133614</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18137</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3808770000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2573826150000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1500000059604645</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B45" t="n">
+        <v>204500</v>
+      </c>
+      <c r="C45" t="n">
+        <v>182020</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16077</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3287746500</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2506416417500</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.1299999952316284</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B46" t="n">
+        <v>204500</v>
+      </c>
+      <c r="C46" t="n">
+        <v>122667</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15128</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3093676000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2506416417500</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.119999997317791</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B47" t="n">
+        <v>200500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>112447</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13766</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2760083000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2457391157500</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B48" t="n">
+        <v>204500</v>
+      </c>
+      <c r="C48" t="n">
+        <v>162037</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17766</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3633147000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2506416417500</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B49" t="n">
+        <v>202000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>93588</v>
+      </c>
+      <c r="D49" t="n">
+        <v>13766</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2780732000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2475775630000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B50" t="n">
+        <v>201500</v>
+      </c>
+      <c r="C50" t="n">
+        <v>140943</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13766</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2773849000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2469647472500</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B51" t="n">
+        <v>191100</v>
+      </c>
+      <c r="C51" t="n">
+        <v>220803</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17766</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3395082600</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2342181796500</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B52" t="n">
+        <v>198200</v>
+      </c>
+      <c r="C52" t="n">
+        <v>89249</v>
+      </c>
+      <c r="D52" t="n">
+        <v>17766</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3521221200</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2429201633000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.1400000005960464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B53" t="n">
+        <v>208500</v>
+      </c>
+      <c r="C53" t="n">
+        <v>195451</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13620</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12256315</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2839770000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2555441677500</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B54" t="n">
+        <v>217500</v>
+      </c>
+      <c r="C54" t="n">
+        <v>483767</v>
+      </c>
+      <c r="D54" t="n">
+        <v>14339</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3118732500</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2672295262500</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.119999997317791</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B55" t="n">
+        <v>238000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>536902</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16526</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3933188000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2924166770000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.1299999952316284</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B56" t="n">
+        <v>239500</v>
+      </c>
+      <c r="C56" t="n">
+        <v>561596</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16554</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3964683000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2942596392500</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1299999952316284</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B57" t="n">
+        <v>191900</v>
+      </c>
+      <c r="C57" t="n">
+        <v>895514</v>
+      </c>
+      <c r="D57" t="n">
+        <v>25834</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4957544600</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2357763038500</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2099999934434891</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B58" t="n">
+        <v>178500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>578882</v>
+      </c>
+      <c r="D58" t="n">
+        <v>24313</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4339870500</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2193125077500</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B59" t="n">
+        <v>170300</v>
+      </c>
+      <c r="C59" t="n">
+        <v>550539</v>
+      </c>
+      <c r="D59" t="n">
+        <v>21372</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3639651600</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2092376474500</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.1700000017881393</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B60" t="n">
+        <v>170400</v>
+      </c>
+      <c r="C60" t="n">
+        <v>243134</v>
+      </c>
+      <c r="D60" t="n">
+        <v>22606</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3852062400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2093605116000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.1800000071525574</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B61" t="n">
+        <v>172800</v>
+      </c>
+      <c r="C61" t="n">
+        <v>212958</v>
+      </c>
+      <c r="D61" t="n">
+        <v>25592</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4422297600</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2123092512000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2099999934434891</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B62" t="n">
+        <v>173200</v>
+      </c>
+      <c r="C62" t="n">
+        <v>176746</v>
+      </c>
+      <c r="D62" t="n">
+        <v>25548</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4424913600</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2128007078000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.2099999934434891</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B63" t="n">
+        <v>170900</v>
+      </c>
+      <c r="C63" t="n">
+        <v>118751</v>
+      </c>
+      <c r="D63" t="n">
+        <v>24865</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4249428500</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2099748323500</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B64" t="n">
+        <v>179100</v>
+      </c>
+      <c r="C64" t="n">
+        <v>268147</v>
+      </c>
+      <c r="D64" t="n">
+        <v>41233</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7384830300</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2200496926500</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B65" t="n">
+        <v>186500</v>
+      </c>
+      <c r="C65" t="n">
+        <v>463798</v>
+      </c>
+      <c r="D65" t="n">
+        <v>57842</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10787533000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2291416397500</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B66" t="n">
+        <v>184900</v>
+      </c>
+      <c r="C66" t="n">
+        <v>152478</v>
+      </c>
+      <c r="D66" t="n">
+        <v>62892</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11628730800</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2271758133500</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B67" t="n">
+        <v>179700</v>
+      </c>
+      <c r="C67" t="n">
+        <v>189270</v>
+      </c>
+      <c r="D67" t="n">
+        <v>60228</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10822971600</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2207868775500</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.4900000095367432</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B68" t="n">
+        <v>179500</v>
+      </c>
+      <c r="C68" t="n">
+        <v>88854</v>
+      </c>
+      <c r="D68" t="n">
+        <v>67068</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12038706000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2205411492500</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.550000011920929</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B69" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>162673</v>
+      </c>
+      <c r="D69" t="n">
+        <v>74598</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13614135000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2242270737500</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B70" t="n">
+        <v>178700</v>
+      </c>
+      <c r="C70" t="n">
+        <v>106213</v>
+      </c>
+      <c r="D70" t="n">
+        <v>82205</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F70" t="n">
+        <v>14690033500</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2195582360500</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B71" t="n">
+        <v>174500</v>
+      </c>
+      <c r="C71" t="n">
+        <v>120256</v>
+      </c>
+      <c r="D71" t="n">
+        <v>91293</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15930628500</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2143979417500</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B72" t="n">
+        <v>171200</v>
+      </c>
+      <c r="C72" t="n">
+        <v>152081</v>
+      </c>
+      <c r="D72" t="n">
+        <v>97583</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16706209600</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2103434248000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B73" t="n">
+        <v>164300</v>
+      </c>
+      <c r="C73" t="n">
+        <v>247605</v>
+      </c>
+      <c r="D73" t="n">
+        <v>104118</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F73" t="n">
+        <v>17106587400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2018657984500</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B74" t="n">
+        <v>166600</v>
+      </c>
+      <c r="C74" t="n">
+        <v>124536</v>
+      </c>
+      <c r="D74" t="n">
+        <v>94628</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15765024800</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2046916739000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B75" t="n">
+        <v>161900</v>
+      </c>
+      <c r="C75" t="n">
+        <v>214807</v>
+      </c>
+      <c r="D75" t="n">
+        <v>110783</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F75" t="n">
+        <v>17935767700</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1989170588500</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B76" t="n">
+        <v>163000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>117322</v>
+      </c>
+      <c r="D76" t="n">
+        <v>110051</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F76" t="n">
+        <v>17938313000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2002685645000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B77" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>222078</v>
+      </c>
+      <c r="D77" t="n">
+        <v>116187</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F77" t="n">
+        <v>19635603000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2076404135000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.949999988079071</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B78" t="n">
+        <v>168700</v>
+      </c>
+      <c r="C78" t="n">
+        <v>136047</v>
+      </c>
+      <c r="D78" t="n">
+        <v>116100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F78" t="n">
+        <v>19586070000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2072718210500</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B79" t="n">
+        <v>167000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>130901</v>
+      </c>
+      <c r="D79" t="n">
+        <v>120258</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20083086000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2051831305000</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B80" t="n">
+        <v>162800</v>
+      </c>
+      <c r="C80" t="n">
+        <v>182497</v>
+      </c>
+      <c r="D80" t="n">
+        <v>119172</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19401201600</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2000228362000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B81" t="n">
+        <v>165900</v>
+      </c>
+      <c r="C81" t="n">
+        <v>124904</v>
+      </c>
+      <c r="D81" t="n">
+        <v>112762</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18707215800</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2038316248500</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B82" t="n">
+        <v>169700</v>
+      </c>
+      <c r="C82" t="n">
+        <v>251241</v>
+      </c>
+      <c r="D82" t="n">
+        <v>95152</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12286415</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16147294400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2085004625500</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B83" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C83" t="n">
+        <v>78734</v>
+      </c>
+      <c r="D83" t="n">
+        <v>99354</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16751084400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2076126069000</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B84" t="n">
+        <v>170900</v>
+      </c>
+      <c r="C84" t="n">
+        <v>138291</v>
+      </c>
+      <c r="D84" t="n">
+        <v>101389</v>
+      </c>
+      <c r="E84" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17327380100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2104448073500</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B85" t="n">
+        <v>167300</v>
+      </c>
+      <c r="C85" t="n">
+        <v>86084</v>
+      </c>
+      <c r="D85" t="n">
+        <v>103266</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F85" t="n">
+        <v>17276401800</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2060117979500</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B86" t="n">
+        <v>165900</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95108</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100113</v>
+      </c>
+      <c r="E86" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16608746700</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2042878498500</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B87" t="n">
+        <v>163400</v>
+      </c>
+      <c r="C87" t="n">
+        <v>149167</v>
+      </c>
+      <c r="D87" t="n">
+        <v>104491</v>
+      </c>
+      <c r="E87" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F87" t="n">
+        <v>17073829400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2012093711000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B88" t="n">
+        <v>161000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>122764</v>
+      </c>
+      <c r="D88" t="n">
+        <v>100479</v>
+      </c>
+      <c r="E88" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16177119000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1982540315000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B89" t="n">
+        <v>161800</v>
+      </c>
+      <c r="C89" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>98471</v>
+      </c>
+      <c r="E89" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15932607800</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1992391447000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B90" t="n">
+        <v>160000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>80355</v>
+      </c>
+      <c r="D90" t="n">
+        <v>96086</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15373760000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1970226400000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B91" t="n">
+        <v>164000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>118225</v>
+      </c>
+      <c r="D91" t="n">
+        <v>96630</v>
+      </c>
+      <c r="E91" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15847320000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2019482060000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B92" t="n">
+        <v>163600</v>
+      </c>
+      <c r="C92" t="n">
+        <v>57971</v>
+      </c>
+      <c r="D92" t="n">
+        <v>96480</v>
+      </c>
+      <c r="E92" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15784128000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2014556494000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B93" t="n">
+        <v>160900</v>
+      </c>
+      <c r="C93" t="n">
+        <v>76304</v>
+      </c>
+      <c r="D93" t="n">
+        <v>101030</v>
+      </c>
+      <c r="E93" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16255727000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1981308923500</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B94" t="n">
+        <v>163600</v>
+      </c>
+      <c r="C94" t="n">
+        <v>183899</v>
+      </c>
+      <c r="D94" t="n">
+        <v>97190</v>
+      </c>
+      <c r="E94" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15900284000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2014556494000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B95" t="n">
+        <v>159400</v>
+      </c>
+      <c r="C95" t="n">
+        <v>113727</v>
+      </c>
+      <c r="D95" t="n">
+        <v>103740</v>
+      </c>
+      <c r="E95" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16536156000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1962838051000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B96" t="n">
+        <v>156600</v>
+      </c>
+      <c r="C96" t="n">
+        <v>86394</v>
+      </c>
+      <c r="D96" t="n">
+        <v>108173</v>
+      </c>
+      <c r="E96" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16939891800</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1928359089000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8799999952316284</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B97" t="n">
+        <v>150000</v>
+      </c>
+      <c r="C97" t="n">
+        <v>142051</v>
+      </c>
+      <c r="D97" t="n">
+        <v>113602</v>
+      </c>
+      <c r="E97" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17040300000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1847087250000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B98" t="n">
+        <v>152000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>69723</v>
+      </c>
+      <c r="D98" t="n">
+        <v>111581</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16960312000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1871715080000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B99" t="n">
+        <v>145100</v>
+      </c>
+      <c r="C99" t="n">
+        <v>333033</v>
+      </c>
+      <c r="D99" t="n">
+        <v>101685</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14754493500</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1786749066500</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B100" t="n">
+        <v>142000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>209451</v>
+      </c>
+      <c r="D100" t="n">
+        <v>95132</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13508744000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1748575930000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B101" t="n">
+        <v>141300</v>
+      </c>
+      <c r="C101" t="n">
+        <v>146904</v>
+      </c>
+      <c r="D101" t="n">
+        <v>89258</v>
+      </c>
+      <c r="E101" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12612155400</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1739956189500</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B102" t="n">
+        <v>141600</v>
+      </c>
+      <c r="C102" t="n">
+        <v>176414</v>
+      </c>
+      <c r="D102" t="n">
+        <v>76097</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12313915</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10775335200</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1743650364000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B103" t="n">
+        <v>148100</v>
+      </c>
+      <c r="C103" t="n">
+        <v>200182</v>
+      </c>
+      <c r="D103" t="n">
+        <v>59191</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8766187100</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1828133811500</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.4799999892711639</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B104" t="n">
+        <v>154400</v>
+      </c>
+      <c r="C104" t="n">
+        <v>320549</v>
+      </c>
+      <c r="D104" t="n">
+        <v>41012</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6332252800</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1905900476000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B105" t="n">
+        <v>151600</v>
+      </c>
+      <c r="C105" t="n">
+        <v>151814</v>
+      </c>
+      <c r="D105" t="n">
+        <v>44213</v>
+      </c>
+      <c r="E105" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6702690800</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1871337514000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.3600000143051147</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B106" t="n">
+        <v>151700</v>
+      </c>
+      <c r="C106" t="n">
+        <v>112356</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B107" t="n">
+        <v>152200</v>
+      </c>
+      <c r="C107" t="n">
+        <v>238748</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_3.xlsx
+++ b/list_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5616,11 +5616,21 @@
       <c r="C199" t="n">
         <v>38680</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>682255</v>
+      </c>
+      <c r="E199" t="n">
+        <v>15302459</v>
+      </c>
+      <c r="F199" t="n">
+        <v>195466057500</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4384154503500</v>
+      </c>
+      <c r="H199" t="n">
+        <v>4.460000038146973</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5637,6 +5647,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>288000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>44194</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5649,7 +5675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10831,11 +10857,21 @@
       <c r="C199" t="n">
         <v>167675</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>764376</v>
+      </c>
+      <c r="E199" t="n">
+        <v>58492759</v>
+      </c>
+      <c r="F199" t="n">
+        <v>91572244800</v>
+      </c>
+      <c r="G199" t="n">
+        <v>7007432528200</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.309999942779541</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10852,6 +10888,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>120500</v>
+      </c>
+      <c r="C201" t="n">
+        <v>235191</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10864,7 +10916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16046,11 +16098,21 @@
       <c r="C199" t="n">
         <v>148613</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>641219</v>
+      </c>
+      <c r="E199" t="n">
+        <v>23605077</v>
+      </c>
+      <c r="F199" t="n">
+        <v>47963181200</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1765659759600</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.720000028610229</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16067,6 +16129,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>76100</v>
+      </c>
+      <c r="C201" t="n">
+        <v>223191</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16079,7 +16157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21261,11 +21339,21 @@
       <c r="C199" t="n">
         <v>73436</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>509342</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11349509</v>
+      </c>
+      <c r="F199" t="n">
+        <v>104415110000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2326649345000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>4.489999771118164</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -21282,6 +21370,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>204000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>62382</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21294,7 +21398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26476,11 +26580,21 @@
       <c r="C199" t="n">
         <v>337465</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>61904</v>
+      </c>
+      <c r="E199" t="n">
+        <v>37430655</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15011720000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>9076933837500</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1700000017881393</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -26497,6 +26611,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>239000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>391823</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26509,7 +26639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29273,11 +29403,21 @@
       <c r="C106" t="n">
         <v>112356</v>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>42434</v>
+      </c>
+      <c r="E106" t="n">
+        <v>12343915</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6437237800</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1872571905500</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3400000035762787</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -29295,6 +29435,22 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B108" t="n">
+        <v>148900</v>
+      </c>
+      <c r="C108" t="n">
+        <v>112067</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
